--- a/data/trans_bre/P1403-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1403-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3432011251635456</v>
+        <v>-0.2164253746315893</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.914808330829517</v>
+        <v>2.758675445659497</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.764660914098798</v>
+        <v>2.704269187941964</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.29057796023739</v>
+        <v>6.266591519638593</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.01753002120491871</v>
+        <v>-0.01038755247731742</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1622824908862478</v>
+        <v>0.1574484827853183</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1726299682735828</v>
+        <v>0.1746059461328093</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2973039614917389</v>
+        <v>0.3105192944861442</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.180369085933224</v>
+        <v>8.731116993764928</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.01962082727279</v>
+        <v>9.85017180639605</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.169465639471994</v>
+        <v>9.185179085368206</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.99397237166677</v>
+        <v>14.75526385749918</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.462169258822415</v>
+        <v>0.4776611929826169</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7316113452654683</v>
+        <v>0.6949275328778615</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7258212943873353</v>
+        <v>0.740986541846066</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.033253531837101</v>
+        <v>0.9979588339848939</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.700144616679803</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.446591180922182</v>
+        <v>3.446591180922179</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2921133912090699</v>
@@ -749,7 +749,7 @@
         <v>0.1889544577516238</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1868334220000278</v>
+        <v>0.1868334220000276</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7574661613666647</v>
+        <v>0.7583794637348431</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.02832225713574151</v>
+        <v>0.01271996331065081</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.9367757341614925</v>
+        <v>-0.6902210861342875</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2718533492262049</v>
+        <v>0.5405725013295859</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.05062916455187224</v>
+        <v>0.05078334403901993</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.01321436338443164</v>
+        <v>-0.009546904590014695</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.06797611255848829</v>
+        <v>-0.04456729717624656</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.01366446039310283</v>
+        <v>0.02633963969631757</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.692098684735466</v>
+        <v>6.367881210604674</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.220068917749872</v>
+        <v>7.190181686254019</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.888968001772923</v>
+        <v>6.217119797782757</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.517455408839834</v>
+        <v>6.508895982485733</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5965882064224339</v>
+        <v>0.5798259641525519</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4418528884504913</v>
+        <v>0.4508908689810754</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4600610915734966</v>
+        <v>0.4892784605360187</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4047059740249321</v>
+        <v>0.3911822114760763</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.231665870662613</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.619988940460446</v>
+        <v>-1.61998894046044</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1310072113055423</v>
@@ -849,7 +849,7 @@
         <v>0.07445722265241644</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.08029482261365574</v>
+        <v>-0.08029482261365548</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.311011989819195</v>
+        <v>-1.429334424793959</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.1803931095187625</v>
+        <v>-0.4646398251050601</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.349149819789097</v>
+        <v>-2.727135369963168</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.417846652604589</v>
+        <v>-4.527126087899276</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1017950152884689</v>
+        <v>-0.1098365587650205</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.009638180331423685</v>
+        <v>-0.02327765210197983</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1267378915404639</v>
+        <v>-0.1454435413629889</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2004470939539738</v>
+        <v>-0.2082022421678558</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.131059405558022</v>
+        <v>4.678090534826193</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.167545587436025</v>
+        <v>7.365926973153905</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.409158981492149</v>
+        <v>5.456524038527004</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.544943769223658</v>
+        <v>1.397299889062997</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3753520332531582</v>
+        <v>0.4546619609569466</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4441955459119965</v>
+        <v>0.4555072796276186</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3599209064035032</v>
+        <v>0.3645743115321728</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.08358147700286944</v>
+        <v>0.07775128289313668</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.571930691033901</v>
+        <v>-1.466040914519246</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.552640726415685</v>
+        <v>-4.186366369684914</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-8.131292379121348</v>
+        <v>-7.430571027443722</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.765903606850074</v>
+        <v>-5.422192820799183</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1803471405933727</v>
+        <v>-0.1589967966659422</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2621468583842565</v>
+        <v>-0.2409204073227764</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.428905526832677</v>
+        <v>-0.3916579431957031</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2632627907249525</v>
+        <v>-0.2473357165801047</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.649802679189413</v>
+        <v>7.013729703941328</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.250952031986739</v>
+        <v>5.702976607673689</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.113673754473645</v>
+        <v>1.619876623855945</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7851856013453611</v>
+        <v>0.9391136126488459</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9154851227748408</v>
+        <v>1.000515883794204</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4143766358663222</v>
+        <v>0.4394549593674722</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1558365260177573</v>
+        <v>0.1177512647394105</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.04238700643171251</v>
+        <v>0.05189318920713825</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.621077348528083</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.689552392407812</v>
+        <v>1.689552392407814</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3023893045916271</v>
@@ -1049,7 +1049,7 @@
         <v>0.1737902449290301</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.08783727960060413</v>
+        <v>0.08783727960060426</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.329121449154529</v>
+        <v>2.168123864517814</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.110711217913876</v>
+        <v>2.181292861460816</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6539173926129525</v>
+        <v>0.7891595233134988</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.00221025043598872</v>
+        <v>-0.1796928471594318</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1688973417607425</v>
+        <v>0.155313179998217</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1189943528847526</v>
+        <v>0.1245400923393819</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0434677584541422</v>
+        <v>0.04878537279647785</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>6.883560665230624e-05</v>
+        <v>-0.009192092428023258</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.662194914739735</v>
+        <v>5.554944400179256</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.943496046269134</v>
+        <v>5.898660630108699</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.464664327063968</v>
+        <v>4.27016098376212</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.283330444882568</v>
+        <v>3.162557527806534</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.469734351371785</v>
+        <v>0.4573674028394331</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3815384576454363</v>
+        <v>0.3744813685608316</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3160318175886768</v>
+        <v>0.3007680840848297</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1783796307797344</v>
+        <v>0.1720985639677074</v>
       </c>
     </row>
     <row r="19">
